--- a/Tarea02/domains.xlsx
+++ b/Tarea02/domains.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="domains" r:id="rId3" sheetId="1"/>
+    <sheet name="domains xlsx" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -141,7 +141,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Auburnwa</t>
+          <t>Auburn Wa</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -162,7 +162,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>Ct</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -183,7 +183,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Prince George County MD</t>
+          <t>Prince George County Md</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -519,7 +519,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Prince George County MD</t>
+          <t>Prince George County Md</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -666,7 +666,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Johns Creek GA</t>
+          <t>Johns Creek Ga</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>County of Riverside</t>
+          <t>County Of Riverside</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Fulton County GA</t>
+          <t>Fulton County Ga</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Dallas OpenData</t>
+          <t>Dallas Opendata</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Cincinnati OH</t>
+          <t>Cincinnati Oh</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>Nj</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Providence RI</t>
+          <t>Providence Ri</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Providence RI</t>
+          <t>Providence Ri</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>Mo</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Austintexas</t>
+          <t>Austin Texas</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Fortworthtexas</t>
+          <t>Fortworth Texas</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Montgomerycountymd</t>
+          <t>Montgomery County Md</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Sonomacounty</t>
+          <t>Sonoma County</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>Wa</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -3564,7 +3564,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Countyofnapa</t>
+          <t>County Of Napa</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -4026,7 +4026,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>City of Henderson</t>
+          <t>City Of Henderson</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Austintexas</t>
+          <t>Austin Texas</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -4110,7 +4110,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Piercecountywa</t>
+          <t>Pierce County Wa</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Dumfriesva</t>
+          <t>Dumfries Va</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Opendatanyc</t>
+          <t>Opendata Nyc</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Howardcountymd</t>
+          <t>Howard County Md</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Richmond gov</t>
+          <t>Richmond Gov</t>
         </is>
       </c>
       <c r="C245" t="n">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Montgomerycountymd</t>
+          <t>Montgomery County Md</t>
         </is>
       </c>
       <c r="C246" t="n">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Fulton County GA</t>
+          <t>Fulton County Ga</t>
         </is>
       </c>
       <c r="C248" t="n">
@@ -6399,7 +6399,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Bayareametro</t>
+          <t>Bay Area Metro</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Austintexas</t>
+          <t>Austin Texas</t>
         </is>
       </c>
       <c r="C328" t="n">
@@ -7197,7 +7197,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>NZ</t>
+          <t>Nz</t>
         </is>
       </c>
       <c r="C340" t="n">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Pa</t>
         </is>
       </c>
       <c r="C342" t="n">
@@ -7470,7 +7470,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Coloradosprings</t>
+          <t>Colorado Springs</t>
         </is>
       </c>
       <c r="C353" t="n">
@@ -7575,7 +7575,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Sandiegocounty</t>
+          <t>San Diego County</t>
         </is>
       </c>
       <c r="C358" t="n">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Nassaucountyny</t>
+          <t>Nassau county ny</t>
         </is>
       </c>
       <c r="C368" t="n">
@@ -7974,7 +7974,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>Nj</t>
         </is>
       </c>
       <c r="C377" t="n">
@@ -8079,7 +8079,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Cityofnewyork</t>
+          <t>City Of New York</t>
         </is>
       </c>
       <c r="C382" t="n">
@@ -8289,7 +8289,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>City of Henderson</t>
+          <t>City Of Henderson</t>
         </is>
       </c>
       <c r="C392" t="n">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>Ci</t>
         </is>
       </c>
       <c r="C414" t="n">
@@ -9402,7 +9402,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Miamigov</t>
+          <t>Miami Gov</t>
         </is>
       </c>
       <c r="C445" t="n">
@@ -9570,7 +9570,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Cincinnati OH</t>
+          <t>Cincinnati Oh</t>
         </is>
       </c>
       <c r="C453" t="n">
@@ -10137,7 +10137,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Datacenterresearch</t>
+          <t>Data Center Research</t>
         </is>
       </c>
       <c r="C480" t="n">
@@ -10221,7 +10221,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Prince George County MD</t>
+          <t>Prince George County Md</t>
         </is>
       </c>
       <c r="C484" t="n">
@@ -10410,7 +10410,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Grandrapidsmi</t>
+          <t>Grand Rapids Mi</t>
         </is>
       </c>
       <c r="C493" t="n">
@@ -10557,7 +10557,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Fulton County GA</t>
+          <t>Fulton County Ga</t>
         </is>
       </c>
       <c r="C500" t="n">
@@ -10746,7 +10746,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Coloradosprings</t>
+          <t>Colorado Springs</t>
         </is>
       </c>
       <c r="C509" t="n">
@@ -10851,7 +10851,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Waterpointdata</t>
+          <t>Waterpoint Data</t>
         </is>
       </c>
       <c r="C514" t="n">
@@ -11376,7 +11376,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Urbanaillinois</t>
+          <t>Urbana illinois</t>
         </is>
       </c>
       <c r="C539" t="n">
@@ -12342,7 +12342,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>Ny</t>
         </is>
       </c>
       <c r="C585" t="n">
@@ -12552,7 +12552,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Princeedwardisland</t>
+          <t>Prince Edward Island</t>
         </is>
       </c>
       <c r="C595" t="n">
@@ -12615,7 +12615,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Stlouisco</t>
+          <t>St Louis Co</t>
         </is>
       </c>
       <c r="C598" t="n">
